--- a/output/hasil-pos-tagging.xlsx
+++ b/output/hasil-pos-tagging.xlsx
@@ -1431,7 +1431,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,13 +1441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1505,10 +1499,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1845,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1867,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1887,7 +1881,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1901,7 +1895,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1909,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1923,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +1937,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1957,7 +1951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1971,7 +1965,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -1999,7 +1993,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2013,7 +2007,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -2041,7 +2035,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2055,7 +2049,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -2069,7 +2063,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -2083,7 +2077,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -2111,7 +2105,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -2125,7 +2119,7 @@
         <v>0.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -2153,7 +2147,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
@@ -2167,7 +2161,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
@@ -2181,7 +2175,7 @@
         <v>0.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="3" t="s">
         <v>76</v>
       </c>

--- a/output/hasil-pos-tagging.xlsx
+++ b/output/hasil-pos-tagging.xlsx
@@ -1819,13 +1819,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="29.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="288.8621428571428" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
